--- a/WEO統計ページ/XLSXTable/履歴/NGDPDPC_1990.xlsx
+++ b/WEO統計ページ/XLSXTable/履歴/NGDPDPC_1990.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c144b2c14e6297/ドキュメント/GitHub/WorldData/WEO統計ページ/XLSXTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77222DE6-E8DA-4B4B-B25D-647D11B72B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD76399-F1EC-42CB-8044-0EFEA3A91C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58470" yWindow="1935" windowWidth="24480" windowHeight="18225" xr2:uid="{B96F2F9C-DE2C-40CF-BC29-0C72A426CA30}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="8138" windowHeight="9158" xr2:uid="{015CF1E9-682F-420F-9535-0BA33ACCFFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="NGDPDPC_1990" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t>Rank</t>
+  </si>
   <si>
     <t>Country</t>
   </si>
@@ -868,1211 +871,1661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF1220A-53A0-405B-B27F-E787E4DC3252}">
-  <sheetPr codeName="Sheet33"/>
-  <dimension ref="A1:B150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C57FC47-BDCD-4194-A7CF-E824DB34B3D2}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>1990</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>39842.781999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>33067.031999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>30078.706999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>28491.134999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>28187.293000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>27484.598000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>26914.853999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>25809.663</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>25629.431</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>23847.976999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>22285.974999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>21827.439999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>21612.043000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>21572.136999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>20913.04</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>20536.935000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>20460.303</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>20323.326000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>20119.935000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>19428.846000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>18877.581999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>13710.748</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>13648.814</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>13446.23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>13374.312</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>13150.172</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>13117.723</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>12763.342000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>10661.483</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>10612.215</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>10359.998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
         <v>9679.3179999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <v>8675.5759999999991</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
         <v>8562.2559999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
         <v>8167.2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>8002.1660000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
         <v>7957.259</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
         <v>7942.3649999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
         <v>7424.17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
         <v>7267.924</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
         <v>6848.7150000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
         <v>6815.634</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
         <v>5302.8440000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
         <v>4994.0940000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
         <v>4857.7960000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
         <v>4221.8130000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
         <v>4069.7829999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
         <v>3738.1610000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
         <v>3640.26</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
         <v>3588.34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>3425.585</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
         <v>3407.07</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
         <v>3312.337</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
         <v>3106.116</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
         <v>2887.011</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
         <v>2819.9690000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
         <v>2819.5520000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
         <v>2797.4780000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
         <v>2684.4650000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
         <v>2590.2719999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
         <v>2586.2779999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
         <v>2521.569</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
         <v>2492.9389999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
         <v>2456.2849999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
         <v>2397.2249999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
         <v>1971.6949999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
         <v>1959.194</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
         <v>1908.8340000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
         <v>1880.75</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
         <v>1870.847</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
         <v>1716.723</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
         <v>1691.106</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
         <v>1641.855</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
         <v>1629.047</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
         <v>1564.175</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
         <v>1558.18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
         <v>1498.5039999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
         <v>1412.471</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
         <v>1397.414</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
         <v>1351.48</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
         <v>1348.8050000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
         <v>1288.653</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
         <v>1285.664</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
         <v>1265.8820000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
         <v>1255.123</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
         <v>1224.4639999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
         <v>1219.5840000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
         <v>1202.925</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
         <v>1192.3800000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
         <v>1185.277</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
         <v>1141.0429999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
         <v>1127.223</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
         <v>1123.2439999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
         <v>1091.55</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
         <v>1050.252</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
         <v>1045.595</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
         <v>1036.5119999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
         <v>993.48699999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
         <v>967.14499999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
         <v>963.77300000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102">
         <v>950.96799999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A103" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103">
         <v>936.14800000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A104" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104">
         <v>931.447</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A105" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
         <v>898.74099999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A106" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106">
         <v>891.75900000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A107" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
         <v>832.55200000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A108" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108">
         <v>828.82100000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A109" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109">
         <v>790.827</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A110" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110">
         <v>779.34400000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A111" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111">
         <v>770.75699999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A112" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
         <v>737.20699999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A113" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
         <v>723.43100000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A114" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
         <v>715.23599999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115">
         <v>684.65300000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A116" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116">
         <v>675.73599999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A117" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117">
         <v>652.91499999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A118" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118">
         <v>616.32100000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119">
         <v>615.81500000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A120" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120">
         <v>571.81700000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A121" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121">
         <v>564.86800000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A122" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
         <v>562.89800000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A123" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
         <v>552.93299999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A124" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
         <v>547.34400000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A125" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
         <v>542.46199999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A126" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
         <v>505.42200000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A127" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
         <v>472.19299999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A128" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
         <v>435.34100000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A129" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
         <v>420.59300000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A130" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
         <v>417.71699999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A131" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
         <v>417.245</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A132" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
         <v>406.19900000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A133" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
         <v>398.05</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A134" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
         <v>391.983</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A135" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
         <v>381.98700000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A136" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
         <v>368.75</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A137" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
         <v>360.28500000000003</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A138" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
         <v>349.36700000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A139" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
         <v>347.714</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A140" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140">
         <v>346.87299999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A141" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141">
         <v>312.10199999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A142" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142">
         <v>284.63600000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A143" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143">
         <v>271.733</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A144" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144">
         <v>240.23</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A145" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145">
         <v>226.44499999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A146" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146">
         <v>211.03100000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A147" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147">
         <v>207.113</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A148" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148">
         <v>121.715</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A149" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149">
         <v>102.928</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A150" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150">
         <v>87.197000000000003</v>
       </c>
     </row>
